--- a/TiltedSpaceBetaTestReponeseLogs.xlsx
+++ b/TiltedSpaceBetaTestReponeseLogs.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Playstore Beta Feedback Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Timestamp</t>
   </si>
@@ -57,9 +58,6 @@
     <t>nil</t>
   </si>
   <si>
-    <t>More enemies</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
@@ -78,9 +76,6 @@
     <t>Make a button at gameover so the player can watch ads to gain a life</t>
   </si>
   <si>
-    <t>lel</t>
-  </si>
-  <si>
     <t>Add an option to watch ads for more lifes</t>
   </si>
   <si>
@@ -97,13 +92,43 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Enemy Bullets hard to see</t>
+  </si>
+  <si>
+    <t>Created Bullet Trail</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>shake to fire rocket is troublesome</t>
+  </si>
+  <si>
+    <t>Created flick gesture to fire rockets as alternative</t>
+  </si>
+  <si>
+    <t>https://play.google.com/apps/publish/?account=4739697924427955550#BetaFeedbackDetailsPlace:p=com.KenzerLancer.TiltedSpace&amp;feedbackid=lg:AOqpTOEomQe1woaN9yjLxISb7gp4gOanA2pOEPBTgOhA6vzSaquS5kh3mc9aPB1FgLZZvcBqEA-nldgfs9x1Mivu</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Ads too fast shown</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,6 +140,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,11 +178,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -162,8 +205,13 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,6 +225,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6849DE27-494A-4190-9FF6-DA9CB6C8C51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="390525"/>
+          <a:ext cx="10658475" cy="5800725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -488,7 +602,8 @@
     <col min="1" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
     <col min="9" max="9" width="60.140625" customWidth="1"/>
-    <col min="10" max="15" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="66.85546875" customWidth="1"/>
+    <col min="11" max="15" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -496,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -511,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -520,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -554,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -570,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -585,9 +700,11 @@
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -614,10 +731,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
@@ -646,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -676,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -706,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -736,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -745,7 +862,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>42894.619768518518</v>
+        <v>42863.619768518518</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -765,21 +882,19 @@
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>42894.62059027778</v>
+        <v>42863.62059027778</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -799,25 +914,140 @@
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>42895.62059027778</v>
+        <v>42863.62059027778</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42894.62059027778</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42894.62059027778</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="153.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="BetaFeedbackDetailsPlace:p=com.KenzerLancer.TiltedSpace&amp;feedbackid=lg:AOqpTOEomQe1woaN9yjLxISb7gp4gOanA2pOEPBTgOhA6vzSaquS5kh3mc9aPB1FgLZZvcBqEA-nldgfs9x1Mivu"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>